--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev1_Only_1k_Ions/ThinFilter_Analysis.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev1_Only_1k_Ions/ThinFilter_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev1_Only_1k_Ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC10992-A17C-411E-B3C5-5FC7077D5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311580D6-5280-4BE0-9DEF-B06EC5F98720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -4408,7 +4408,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
